--- a/biology/Zoologie/Cylapinae/Cylapinae.xlsx
+++ b/biology/Zoologie/Cylapinae/Cylapinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cylapinae sont une sous-famille d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae (Cimicomorpha, Miroidea), principalement des régions tropicales. 
 </t>
@@ -511,11 +523,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cylapinae se caractérisent au sein des Miridae par des tarses longs et étroits. de deux à trois articles, et une combinaison de caractères sur les prétarses, tels que des parempodia sétiformes et souvent asymétriques, l'absence de pulvilli, des griffes minces généralement dentées à l'apex ainsi que d'autres critères. Seuls les Vaniini ont une structure différente des prétarses, avec notamment des parempodia applatis et spatulés[2]. Ils ont la face dorsale fortement ponctuée. La tête est souvent allongée en hauteur ou en longueur. Les antennes sont longues, souvent plus que le corps, pas particulièrement épaissies[3].  
-Les Isometopinae ont des caractères similaires, mais ont des ocelles. Les Psallopinae sont souvent très petits (1-2 mm), fragiles, et la largeur du vertex inférieure au diamètre d'un œil[2]. 
-Les critères de distinction entre tribus ne sont pas encore aboutis. Les Cylapini ont le corps ovale, de taille moyenne à grande, aplati, imponctué, à la face dorsale chagrinée, à la tête verticale, fortement aplati antérieurement, aux antennes particulièrement longues et graciles. Les Bothriomirini ont un corps ovale et boursouflé, à la face dorsale brillante, fortement ponctuée, souvent avec une pubescence dense[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cylapinae se caractérisent au sein des Miridae par des tarses longs et étroits. de deux à trois articles, et une combinaison de caractères sur les prétarses, tels que des parempodia sétiformes et souvent asymétriques, l'absence de pulvilli, des griffes minces généralement dentées à l'apex ainsi que d'autres critères. Seuls les Vaniini ont une structure différente des prétarses, avec notamment des parempodia applatis et spatulés. Ils ont la face dorsale fortement ponctuée. La tête est souvent allongée en hauteur ou en longueur. Les antennes sont longues, souvent plus que le corps, pas particulièrement épaissies.  
+Les Isometopinae ont des caractères similaires, mais ont des ocelles. Les Psallopinae sont souvent très petits (1-2 mm), fragiles, et la largeur du vertex inférieure au diamètre d'un œil. 
+Les critères de distinction entre tribus ne sont pas encore aboutis. Les Cylapini ont le corps ovale, de taille moyenne à grande, aplati, imponctué, à la face dorsale chagrinée, à la tête verticale, fortement aplati antérieurement, aux antennes particulièrement longues et graciles. Les Bothriomirini ont un corps ovale et boursouflé, à la face dorsale brillante, fortement ponctuée, souvent avec une pubescence dense. 
 			Cylapini : Cylapus tenuicornis, Washington DC
 			Fulviini : Fulvius imbecilis, Washington DC
 			Rhinomiriini : Rhinomiris prathapani, Wynaad, India
@@ -547,10 +561,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La majorité des Cylapinae se rencontrent surtout dans les régions tropicales de la planète, et, en petit nombre, dans les régions tempérées à froides[3]. 
-De nombreuses espèces vivent dans la litière et sous l'écorce[2], dans des zones de forêts sombres et humides[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité des Cylapinae se rencontrent surtout dans les régions tropicales de la planète, et, en petit nombre, dans les régions tempérées à froides. 
+De nombreuses espèces vivent dans la litière et sous l'écorce, dans des zones de forêts sombres et humides.
 </t>
         </is>
       </c>
@@ -579,11 +595,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces punaises sont associées aux champignons. Leur biologie est peu étudiée, notamment en lien avec leur grande agilité et rapidité, qui rend leur capture difficile. Elles ne s'envolent pas, mais courent rapidement se cacher. Des tubes digestifs disséqués ont en effet prouvé l’ingestion de spores de champignons, dont se nourriraient plusieurs espèces, par exemple sur Hypoxylon fragiforme (Pers.) J. Kickx, Hypoxylaceae[4], ou sur Coriolus spp., Polyporaceae[3],[5], poussant sur des branches, des troncs, du bois en décomposition, des rondins pourrissant, notamment dans des forêts humides.
-Elles seraient univoltines dans les régions tempérées, mais les collectes dans les régions subtropicales laissent présager deux ou plusieurs générations annuelles[3].
-Elles semblent avoir une vie nocturne[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises sont associées aux champignons. Leur biologie est peu étudiée, notamment en lien avec leur grande agilité et rapidité, qui rend leur capture difficile. Elles ne s'envolent pas, mais courent rapidement se cacher. Des tubes digestifs disséqués ont en effet prouvé l’ingestion de spores de champignons, dont se nourriraient plusieurs espèces, par exemple sur Hypoxylon fragiforme (Pers.) J. Kickx, Hypoxylaceae, ou sur Coriolus spp., Polyporaceae poussant sur des branches, des troncs, du bois en décomposition, des rondins pourrissant, notamment dans des forêts humides.
+Elles seraient univoltines dans les régions tempérées, mais les collectes dans les régions subtropicales laissent présager deux ou plusieurs générations annuelles.
+Elles semblent avoir une vie nocturne. 
 </t>
         </is>
       </c>
@@ -612,19 +630,90 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une des plus petites sous-familles de Miridae, avec une centaine de genres et environ 500 espèces. On pense qu'un nombre important d'espèces n'ont pas encore été décrites[2]. Gorczyca a rappelé la longue histoire de la compréhension de cette sous-famille[6]. Distant a été le premier à définir une unité séparée pour des représentants de ce groupe en 1883. Reuter et Kirkaldy ont amené plusieurs notions, mais les définitions sont restées sommaires jusqu'à la première révision de Poppius en 1909, avec deux sous-groupes pour les futurs Cylapini et Fulviini, puis rapproche les futurs Bothriomirini des Cylapinae en 1914. Des nouveaux genres sont rajoutés au fur et à mesure des découvertes, jusqu'à une nouvelle réorganisation de la sous-famille par Carvalho en 1952, qui, en 1954, associe les premiers fossiles à cette sous-famille. La classification interne reste plus ou moins la même jusqu'aux travaux de Gorczyca[6], à partir desquels, dès 1997, les Cylapinae comptent cinq tribus, qui ne sont pas encore prises en compte par tous les sites répertoriant la biodiversité (tels qu'ITIS, Taxonomicon, etc.). De plus, certains auteurs considèrent la sous-famille des Psallopinae comme une tribu des Cylapinae[2].
-Des fossiles de Cylapinae ont été trouvés, attribués à 13 genres fossiles différents, dont le plus ancien remonte à l'Albien, au Crétacé, entre −113 et −100 millions d'années[7]. 
-Liste des tribus
-Selon BioLib                    (16 mai 2022)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une des plus petites sous-familles de Miridae, avec une centaine de genres et environ 500 espèces. On pense qu'un nombre important d'espèces n'ont pas encore été décrites. Gorczyca a rappelé la longue histoire de la compréhension de cette sous-famille. Distant a été le premier à définir une unité séparée pour des représentants de ce groupe en 1883. Reuter et Kirkaldy ont amené plusieurs notions, mais les définitions sont restées sommaires jusqu'à la première révision de Poppius en 1909, avec deux sous-groupes pour les futurs Cylapini et Fulviini, puis rapproche les futurs Bothriomirini des Cylapinae en 1914. Des nouveaux genres sont rajoutés au fur et à mesure des découvertes, jusqu'à une nouvelle réorganisation de la sous-famille par Carvalho en 1952, qui, en 1954, associe les premiers fossiles à cette sous-famille. La classification interne reste plus ou moins la même jusqu'aux travaux de Gorczyca, à partir desquels, dès 1997, les Cylapinae comptent cinq tribus, qui ne sont pas encore prises en compte par tous les sites répertoriant la biodiversité (tels qu'ITIS, Taxonomicon, etc.). De plus, certains auteurs considèrent la sous-famille des Psallopinae comme une tribu des Cylapinae.
+Des fossiles de Cylapinae ont été trouvés, attribués à 13 genres fossiles différents, dont le plus ancien remonte à l'Albien, au Crétacé, entre −113 et −100 millions d'années. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cylapinae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cylapinae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des tribus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 mai 2022) :
 tribu Bothriomirini Kirkaldy, 1906
 tribu Cylapini Kirkaldy, 1903
 tribu Fulviini Uhler, 1886
 tribu Rhinomirini Gorczyca
-tribu Vanniini Gorczyca, 1997
-Liste des genres
-Selon BioLib                    (16 mai 2022)[8] :
+tribu Vanniini Gorczyca, 1997</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cylapinae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cylapinae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 mai 2022) :
 tribu Bothriomirini Kirkaldy, 1906
 genre Afrobothriomiris Gorczyca, 2000
 genre Bothriomiris Kirkaldy, 1902
@@ -668,12 +757,12 @@
 genre Howefulvius Schmitz &amp; Štys, 1973
 genre Kotejafulvius Gorczyca, 2006
 genre Laetifulvius Namyatova &amp; Cassis, 2021, monotypique
-genre Linnavuorifulvius Gorczyca &amp; al., 2016, monotypique[9]
+genre Linnavuorifulvius Gorczyca &amp; al., 2016, monotypique
 genre Lygaeoscytus Reuter, 1893
 genre Micanitropis Namyatova &amp; Cassis, 2021, monotypique
 genre Microfulvius Poppius, 1912
 genre Mimofulviella Wolski 2008
-genre Mycetocylapus Poppius, 1914[2]
+genre Mycetocylapus Poppius, 1914
 genre Peritropella Carvalho, 1981
 genre Peritropis Uhler, 1891
 genre Peritropisca Carvalho &amp; Lorenzato, 1978
@@ -705,8 +794,43 @@
 genres Incertae sedis
 genre Palaucoris
 genre Xenocylapus Bergroth, 1922
-Espèces fossiles
-Selon BioLib                    (16 mai 2022)[8], les espèces fossiles suivantes ont été trouvées, dont une seule affectée à une tribu :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cylapinae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cylapinae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 mai 2022), les espèces fossiles suivantes ont été trouvées, dont une seule affectée à une tribu :
 genre †Amberofulvius Herczek, 1991
 genre †Ambocylapus Herczek &amp; Popov, 2000
 genre †Aragocylapus Herczek, Popov &amp; Penalver, 2000
